--- a/data/trans_orig/P22_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P22_R3-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12452</v>
+        <v>12290</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29806</v>
+        <v>29688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07039552441208334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04576640742182084</v>
+        <v>0.0451696547980466</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.109547963838142</v>
+        <v>0.1091140350889452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>9408</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4400</v>
+        <v>4347</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17300</v>
+        <v>17641</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03607017641892434</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01686975402071206</v>
+        <v>0.01666509024502873</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06632387202311874</v>
+        <v>0.06763019002416529</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -786,19 +786,19 @@
         <v>28562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19357</v>
+        <v>19396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40302</v>
+        <v>40031</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05359497652427862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03632195200811182</v>
+        <v>0.03639570558980099</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07562471808202628</v>
+        <v>0.07511680688906033</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>252930</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>242277</v>
+        <v>242395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259631</v>
+        <v>259793</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9296044755879167</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.890452036161858</v>
+        <v>0.8908859649110549</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9542335925781792</v>
+        <v>0.9548303452019534</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -836,19 +836,19 @@
         <v>251430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>243538</v>
+        <v>243197</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256438</v>
+        <v>256491</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9639298235810757</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9336761279768807</v>
+        <v>0.9323698099758346</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.983130245979288</v>
+        <v>0.9833349097549713</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>487</v>
@@ -857,19 +857,19 @@
         <v>504359</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>492619</v>
+        <v>492890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>513564</v>
+        <v>513525</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9464050234757214</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9243752819179737</v>
+        <v>0.9248831931109396</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9636780479918882</v>
+        <v>0.9636042944101988</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12374</v>
+        <v>12620</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30078</v>
+        <v>30222</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04071304691950718</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02509569496178045</v>
+        <v>0.0255941480387511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06100068577864669</v>
+        <v>0.06129371148164728</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -982,19 +982,19 @@
         <v>22117</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14176</v>
+        <v>14364</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32591</v>
+        <v>32542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04388768056551309</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02812970518856473</v>
+        <v>0.02850249810678833</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06467111855845389</v>
+        <v>0.06457305058771959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -1003,19 +1003,19 @@
         <v>42192</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29505</v>
+        <v>31395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56509</v>
+        <v>57810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04231767566418812</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02959321310751513</v>
+        <v>0.03148898830961234</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05667724148575586</v>
+        <v>0.05798215213654783</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>473000</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>462997</v>
+        <v>462853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>480701</v>
+        <v>480455</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9592869530804928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9389993142213532</v>
+        <v>0.9387062885183522</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9749043050382196</v>
+        <v>0.9744058519612488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>478</v>
@@ -1053,19 +1053,19 @@
         <v>481832</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>471358</v>
+        <v>471407</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>489773</v>
+        <v>489585</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9561123194344869</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9353288814415461</v>
+        <v>0.9354269494122804</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9718702948114354</v>
+        <v>0.9714975018932117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>924</v>
@@ -1074,19 +1074,19 @@
         <v>954832</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>940515</v>
+        <v>939214</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>967519</v>
+        <v>965629</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9576823243358119</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9433227585142441</v>
+        <v>0.942017847863452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9704067868924848</v>
+        <v>0.9685110116903874</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9454</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4753</v>
+        <v>4474</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17701</v>
+        <v>17670</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02965187667121837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01490543033294844</v>
+        <v>0.01403158489259296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05551739190849016</v>
+        <v>0.0554177079040479</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1199,19 +1199,19 @@
         <v>7546</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2814</v>
+        <v>3543</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13711</v>
+        <v>14734</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02249744334397455</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00839096494585472</v>
+        <v>0.01056319848985349</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04087928708386464</v>
+        <v>0.04392950376714459</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>17000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10266</v>
+        <v>10294</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27535</v>
+        <v>27695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02598408335053937</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01569131079403299</v>
+        <v>0.01573323335713478</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04208652188324544</v>
+        <v>0.04233088260574805</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>309392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>301145</v>
+        <v>301176</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314093</v>
+        <v>314372</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9703481233287816</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9444826080915099</v>
+        <v>0.944582292095952</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850945696670516</v>
+        <v>0.9859684151074067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>327</v>
@@ -1270,19 +1270,19 @@
         <v>327866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321701</v>
+        <v>320678</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>332598</v>
+        <v>331869</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9775025566560255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9591207129161358</v>
+        <v>0.9560704962328554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9916090350541452</v>
+        <v>0.9894368015101467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>628</v>
@@ -1291,19 +1291,19 @@
         <v>637258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>626723</v>
+        <v>626563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643992</v>
+        <v>643964</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9740159166494606</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9579134781167545</v>
+        <v>0.9576691173942526</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9843086892059669</v>
+        <v>0.9842667666428652</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22444</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13177</v>
+        <v>14148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34072</v>
+        <v>34554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06295248809040421</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03696126769125644</v>
+        <v>0.03968367612926649</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09556829524593116</v>
+        <v>0.09692233603962619</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1416,19 +1416,19 @@
         <v>12509</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6850</v>
+        <v>6833</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20489</v>
+        <v>20334</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03375301228001136</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01848189638626787</v>
+        <v>0.01843628897490271</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05528590037711707</v>
+        <v>0.05486693743521411</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1437,19 +1437,19 @@
         <v>34953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24775</v>
+        <v>24886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47422</v>
+        <v>48668</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04806976907439924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03407244332130441</v>
+        <v>0.03422581041089107</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06521920330229089</v>
+        <v>0.06693219977759715</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>334071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>322443</v>
+        <v>321961</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343338</v>
+        <v>342367</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9370475119095958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.904431704754069</v>
+        <v>0.9030776639603739</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9630387323087436</v>
+        <v>0.9603163238707335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>370</v>
@@ -1487,19 +1487,19 @@
         <v>358100</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>350120</v>
+        <v>350275</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363759</v>
+        <v>363776</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9662469877199886</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.944714099622883</v>
+        <v>0.9451330625647859</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9815181036137322</v>
+        <v>0.9815637110250974</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>709</v>
@@ -1508,19 +1508,19 @@
         <v>692171</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>679702</v>
+        <v>678456</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>702349</v>
+        <v>702238</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9519302309256008</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9347807966977091</v>
+        <v>0.9330678002224028</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9659275566786955</v>
+        <v>0.9657741895891089</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9570</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4741</v>
+        <v>4973</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18322</v>
+        <v>18351</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04707148251066731</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02331760688920832</v>
+        <v>0.02446153148614783</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09012005622183175</v>
+        <v>0.09026396948931201</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1633,19 +1633,19 @@
         <v>15563</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8951</v>
+        <v>9124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25036</v>
+        <v>25941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07494310180151331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04310433821305718</v>
+        <v>0.04393607255598753</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1205582175247435</v>
+        <v>0.1249150341487841</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -1654,19 +1654,19 @@
         <v>25133</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16103</v>
+        <v>16622</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36430</v>
+        <v>36923</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06115513407930936</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03918293824522506</v>
+        <v>0.04044626394640725</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08864381425864203</v>
+        <v>0.08984136045138974</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>193738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184986</v>
+        <v>184957</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198567</v>
+        <v>198335</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9529285174893327</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9098799437781682</v>
+        <v>0.9097360305106877</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9766823931107916</v>
+        <v>0.9755384685138522</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -1704,19 +1704,19 @@
         <v>192105</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>182632</v>
+        <v>181727</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198717</v>
+        <v>198544</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9250568981984867</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.879441782475257</v>
+        <v>0.875084965851216</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.956895661786943</v>
+        <v>0.9560639274440125</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>380</v>
@@ -1725,19 +1725,19 @@
         <v>385843</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>374546</v>
+        <v>374053</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>394873</v>
+        <v>394354</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9388448659206906</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.911356185741358</v>
+        <v>0.9101586395486095</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9608170617547749</v>
+        <v>0.9595537360535927</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>16195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10078</v>
+        <v>9965</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26157</v>
+        <v>25391</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05980253701647833</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03721491438829233</v>
+        <v>0.03679587333909903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09658633508091527</v>
+        <v>0.09376029915620399</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>9137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4264</v>
+        <v>4143</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16771</v>
+        <v>16540</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03285044305417642</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01533144904064633</v>
+        <v>0.0148964544906548</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06029777880943843</v>
+        <v>0.05946404568299785</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>25</v>
@@ -1871,19 +1871,19 @@
         <v>25332</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15824</v>
+        <v>17023</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35759</v>
+        <v>36256</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04614647564813287</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02882537190399829</v>
+        <v>0.03101068031028841</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06514018639079376</v>
+        <v>0.06604618176222707</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>254616</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>244654</v>
+        <v>245420</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260733</v>
+        <v>260846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9401974629835217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9034136649190848</v>
+        <v>0.9062397008437977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9627850856117077</v>
+        <v>0.9632041266609009</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -1921,19 +1921,19 @@
         <v>269007</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261373</v>
+        <v>261604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273880</v>
+        <v>274001</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9671495569458236</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9397022211905608</v>
+        <v>0.9405359543170024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9846685509593536</v>
+        <v>0.9851035455093453</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>511</v>
@@ -1942,19 +1942,19 @@
         <v>523623</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>513196</v>
+        <v>512699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>533131</v>
+        <v>531932</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9538535243518671</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9348598136092062</v>
+        <v>0.933953818237773</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9711746280960017</v>
+        <v>0.9689893196897116</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>15131</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9431</v>
+        <v>9330</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>23536</v>
+        <v>24705</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02464274130194859</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0153588605466597</v>
+        <v>0.01519473099390431</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03833017494751161</v>
+        <v>0.04023445227391741</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2067,19 +2067,19 @@
         <v>23356</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14649</v>
+        <v>14703</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34859</v>
+        <v>34493</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03666381040467025</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02299614622371719</v>
+        <v>0.02308030779628954</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05472076412073329</v>
+        <v>0.0541454506010452</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2088,19 +2088,19 @@
         <v>38488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28346</v>
+        <v>27347</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54042</v>
+        <v>52392</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03076384413655226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02265739491446074</v>
+        <v>0.02185873740955785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04319661311347145</v>
+        <v>0.04187793373129973</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>598893</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>590488</v>
+        <v>589319</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>604593</v>
+        <v>604694</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9753572586980515</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9616698250524883</v>
+        <v>0.9597655477260826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9846411394533403</v>
+        <v>0.9848052690060957</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>598</v>
@@ -2138,19 +2138,19 @@
         <v>613683</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>602180</v>
+        <v>602546</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>622390</v>
+        <v>622336</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9633361895953297</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9452792358792667</v>
+        <v>0.9458545493989547</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9770038537762828</v>
+        <v>0.9769196922037104</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1179</v>
@@ -2159,19 +2159,19 @@
         <v>1212575</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1197021</v>
+        <v>1198671</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1222717</v>
+        <v>1223716</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9692361558634477</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9568033868865283</v>
+        <v>0.9581220662687001</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9773426050855387</v>
+        <v>0.9781412625904422</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>18745</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11397</v>
+        <v>11367</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28654</v>
+        <v>28862</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02528118853156498</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01537058024445542</v>
+        <v>0.01533059097727042</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03864407098310468</v>
+        <v>0.03892546608070519</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>43</v>
@@ -2284,19 +2284,19 @@
         <v>46473</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34700</v>
+        <v>33120</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61637</v>
+        <v>60694</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05931339943989886</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04428779156959973</v>
+        <v>0.04227162993359029</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07866742359901342</v>
+        <v>0.07746373820900232</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2305,19 +2305,19 @@
         <v>65218</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>50346</v>
+        <v>50627</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>82504</v>
+        <v>82951</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04276636772937362</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03301433323395175</v>
+        <v>0.03319826563126294</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05410147825655735</v>
+        <v>0.05439462842159649</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>722728</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>712819</v>
+        <v>712611</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>730076</v>
+        <v>730106</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.974718811468435</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9613559290168953</v>
+        <v>0.9610745339192948</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9846294197555445</v>
+        <v>0.9846694090227296</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>702</v>
@@ -2355,19 +2355,19 @@
         <v>737038</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>721874</v>
+        <v>722817</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>748811</v>
+        <v>750391</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9406866005601011</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9213325764009865</v>
+        <v>0.9225362617909976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9557122084304002</v>
+        <v>0.9577283700664095</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1417</v>
@@ -2376,19 +2376,19 @@
         <v>1459766</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1442480</v>
+        <v>1442033</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1474638</v>
+        <v>1474357</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9572336322706264</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9458985217434426</v>
+        <v>0.9456053715784034</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9669856667660481</v>
+        <v>0.966801734368737</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>130768</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>109846</v>
+        <v>109896</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155064</v>
+        <v>154303</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03998845209454274</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03359056998245767</v>
+        <v>0.03360588165014673</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04741818636571928</v>
+        <v>0.0471856574648</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>139</v>
@@ -2501,19 +2501,19 @@
         <v>146110</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>124761</v>
+        <v>123628</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>170426</v>
+        <v>170487</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04326407202593066</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03694232674690015</v>
+        <v>0.03660685404873956</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05046400261617118</v>
+        <v>0.05048234806859613</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>268</v>
@@ -2522,19 +2522,19 @@
         <v>276878</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>244241</v>
+        <v>243150</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>310969</v>
+        <v>310587</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04165263404235757</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03674284583647279</v>
+        <v>0.03657867074712709</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04678121914996116</v>
+        <v>0.04672377932613346</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3139367</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3115071</v>
+        <v>3115832</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3160289</v>
+        <v>3160239</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9600115479054573</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9525818136342807</v>
+        <v>0.9528143425352</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9664094300175423</v>
+        <v>0.9663941183498533</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3156</v>
@@ -2572,19 +2572,19 @@
         <v>3231060</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3206744</v>
+        <v>3206683</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3252409</v>
+        <v>3253542</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9567359279740694</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.949535997383829</v>
+        <v>0.9495176519314039</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9630576732530999</v>
+        <v>0.9633931459512605</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6235</v>
@@ -2593,19 +2593,19 @@
         <v>6370426</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6336335</v>
+        <v>6336717</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6403063</v>
+        <v>6404154</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9583473659576425</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.953218780850039</v>
+        <v>0.9532762206738664</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9632571541635275</v>
+        <v>0.9634213292528727</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>13894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7638</v>
+        <v>7479</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23931</v>
+        <v>23363</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0471410745829902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02591540055797593</v>
+        <v>0.02537641780976337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08119524716867239</v>
+        <v>0.07926825142165207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -2962,19 +2962,19 @@
         <v>7603</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3218</v>
+        <v>3329</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14837</v>
+        <v>16141</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0264699837933041</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01120146192232515</v>
+        <v>0.01158939024397825</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05165116910321006</v>
+        <v>0.05619393602305749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -2983,19 +2983,19 @@
         <v>21498</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12773</v>
+        <v>13341</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32137</v>
+        <v>32382</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.036938599316466</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02194655130810986</v>
+        <v>0.02292377386482776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05522032873274585</v>
+        <v>0.05564122944861254</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>280844</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>270807</v>
+        <v>271375</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>287100</v>
+        <v>287259</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9528589254170098</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9188047528313277</v>
+        <v>0.9207317485783481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9740845994420241</v>
+        <v>0.9746235821902371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>249</v>
@@ -3033,19 +3033,19 @@
         <v>279642</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272408</v>
+        <v>271104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284027</v>
+        <v>283916</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9735300162066959</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9483488308967898</v>
+        <v>0.9438060639769424</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9887985380776748</v>
+        <v>0.9884106097560218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>518</v>
@@ -3054,19 +3054,19 @@
         <v>560485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549846</v>
+        <v>549601</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>569210</v>
+        <v>568642</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.963061400683534</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9447796712672538</v>
+        <v>0.9443587705513881</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780534486918901</v>
+        <v>0.9770762261351724</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>30244</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19782</v>
+        <v>18517</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45501</v>
+        <v>44895</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05994213322584482</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03920732502214419</v>
+        <v>0.03670002564287127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09018294996510869</v>
+        <v>0.08898195877337559</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -3179,19 +3179,19 @@
         <v>29670</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19481</v>
+        <v>18881</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>44504</v>
+        <v>42208</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.056648424162468</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03719502987995656</v>
+        <v>0.03604955611862869</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08496922375543631</v>
+        <v>0.08058618179130424</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -3200,19 +3200,19 @@
         <v>59914</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45761</v>
+        <v>45129</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80323</v>
+        <v>80232</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05826449910079477</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04450113777802438</v>
+        <v>0.0438866300872816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07811163578453194</v>
+        <v>0.0780226362212285</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>474302</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>459045</v>
+        <v>459651</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>484764</v>
+        <v>486029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9400578667741551</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9098170500348913</v>
+        <v>0.9110180412266244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9607926749778558</v>
+        <v>0.9632999743571287</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>457</v>
@@ -3250,19 +3250,19 @@
         <v>494095</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>479261</v>
+        <v>481557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>504284</v>
+        <v>504884</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.943351575837532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9150307762445639</v>
+        <v>0.9194138182086962</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9628049701200435</v>
+        <v>0.9639504438813714</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>904</v>
@@ -3271,19 +3271,19 @@
         <v>968397</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>947988</v>
+        <v>948079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>982550</v>
+        <v>983182</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9417355008992052</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9218883642154678</v>
+        <v>0.9219773637787715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9554988622219757</v>
+        <v>0.9561133699127183</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>16357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9731</v>
+        <v>9577</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27009</v>
+        <v>26520</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05047745479884865</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03003049499504139</v>
+        <v>0.02955460255228726</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08335038183056584</v>
+        <v>0.08184056904536691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3396,19 +3396,19 @@
         <v>9567</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3880</v>
+        <v>4436</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19088</v>
+        <v>18461</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02805343599327321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01137876370336833</v>
+        <v>0.01300892223486697</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0559723169004813</v>
+        <v>0.05413353759426547</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -3417,19 +3417,19 @@
         <v>25924</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16562</v>
+        <v>17259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37641</v>
+        <v>37685</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03897928924342769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02490325423300179</v>
+        <v>0.02595094365186764</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05659713007245137</v>
+        <v>0.05666291335302324</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>307689</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297037</v>
+        <v>297526</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>314315</v>
+        <v>314469</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9495225452011513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.916649618169434</v>
+        <v>0.9181594309546331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9699695050049583</v>
+        <v>0.9704453974477127</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>309</v>
@@ -3467,19 +3467,19 @@
         <v>331453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321932</v>
+        <v>322559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337140</v>
+        <v>336584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9719465640067267</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9440276830995185</v>
+        <v>0.9458664624057357</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9886212362966315</v>
+        <v>0.9869910777651346</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>613</v>
@@ -3488,19 +3488,19 @@
         <v>639142</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627425</v>
+        <v>627381</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>648504</v>
+        <v>647807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9610207107565724</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9434028699275492</v>
+        <v>0.9433370866469768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9750967457669985</v>
+        <v>0.9740490563481323</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>26186</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15365</v>
+        <v>16721</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38243</v>
+        <v>38394</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07002071854458097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04108407737632584</v>
+        <v>0.04471026274308735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1022593425598686</v>
+        <v>0.1026635429117096</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -3613,19 +3613,19 @@
         <v>18099</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11369</v>
+        <v>11021</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28044</v>
+        <v>26716</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04653260400078583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02923108276945442</v>
+        <v>0.02833525430293195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07210268921671249</v>
+        <v>0.06868720253696659</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3634,19 +3634,19 @@
         <v>44285</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32313</v>
+        <v>32296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60781</v>
+        <v>59997</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05804624081666358</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04235328943039599</v>
+        <v>0.04233201439109602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07966738144531119</v>
+        <v>0.07863944453867915</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>347796</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335739</v>
+        <v>335588</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>358617</v>
+        <v>357261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9299792814554191</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8977406574401314</v>
+        <v>0.8973364570882905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9589159226236742</v>
+        <v>0.955289737256913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>353</v>
@@ -3684,19 +3684,19 @@
         <v>370852</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360907</v>
+        <v>362235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>377582</v>
+        <v>377930</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9534673959992142</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9278973107832875</v>
+        <v>0.9313127974630334</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9707689172305456</v>
+        <v>0.9716647456970681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>675</v>
@@ -3705,19 +3705,19 @@
         <v>718648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>702152</v>
+        <v>702936</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>730620</v>
+        <v>730637</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9419537591833365</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9203326185546888</v>
+        <v>0.9213605554613209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9576467105696042</v>
+        <v>0.957667985608904</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>5070</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10307</v>
+        <v>11354</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02384335305729972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00922405284327389</v>
+        <v>0.009216399120748191</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04847734125093911</v>
+        <v>0.05339991810840628</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3830,19 +3830,19 @@
         <v>4742</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1786</v>
+        <v>1819</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11054</v>
+        <v>11641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02159328052968706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008133392581559986</v>
+        <v>0.008281708871805417</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05033690898990493</v>
+        <v>0.05301033179221212</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3851,19 +3851,19 @@
         <v>9811</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4997</v>
+        <v>4962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17214</v>
+        <v>16762</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02270016623932833</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01156086435024829</v>
+        <v>0.01148153337314288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03982819669755754</v>
+        <v>0.03878319733357833</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>207548</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202311</v>
+        <v>201264</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210657</v>
+        <v>210658</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9761566469427003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9515226587490604</v>
+        <v>0.9466000818915935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.990775947156726</v>
+        <v>0.9907836008792518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -3901,19 +3901,19 @@
         <v>214849</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208537</v>
+        <v>207950</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217805</v>
+        <v>217772</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.978406719470313</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9496630910100945</v>
+        <v>0.9469896682077878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.99186660741844</v>
+        <v>0.9917182911281945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -3922,19 +3922,19 @@
         <v>422398</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414995</v>
+        <v>415447</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427212</v>
+        <v>427247</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9772998337606716</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9601718033024426</v>
+        <v>0.9612168026664217</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9884391356497517</v>
+        <v>0.9885184666268572</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>12411</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5956</v>
+        <v>6215</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23480</v>
+        <v>24107</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04529951826145247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02173996907129299</v>
+        <v>0.02268366705476615</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08569984254386956</v>
+        <v>0.08798637967885302</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -4047,19 +4047,19 @@
         <v>4994</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1962</v>
+        <v>1918</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11045</v>
+        <v>12249</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01783309687012005</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007005789443330751</v>
+        <v>0.006849551023387358</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03944233322701986</v>
+        <v>0.04374092107388122</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -4068,19 +4068,19 @@
         <v>17405</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10228</v>
+        <v>10085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29395</v>
+        <v>29936</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03141633635727339</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01846246686138768</v>
+        <v>0.01820301821218931</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.053057988770492</v>
+        <v>0.05403461551237036</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>261570</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250501</v>
+        <v>249874</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268025</v>
+        <v>267766</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9547004817385475</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9143001574561302</v>
+        <v>0.9120136203211463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9782600309287069</v>
+        <v>0.9773163329452337</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>264</v>
@@ -4118,19 +4118,19 @@
         <v>275037</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>268986</v>
+        <v>267782</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>278069</v>
+        <v>278113</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.98216690312988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9605576667729795</v>
+        <v>0.9562590789261184</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9929942105566691</v>
+        <v>0.9931504489766126</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -4139,19 +4139,19 @@
         <v>536607</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>524617</v>
+        <v>524076</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>543784</v>
+        <v>543927</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9685836636427266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9469420112295075</v>
+        <v>0.9459653844876298</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9815375331386118</v>
+        <v>0.9817969817878107</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>26249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16858</v>
+        <v>16336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37980</v>
+        <v>39160</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03960398641149558</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02543480241127809</v>
+        <v>0.024646847991665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05730334976189558</v>
+        <v>0.0590838116824246</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -4264,19 +4264,19 @@
         <v>19527</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10974</v>
+        <v>11730</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>31346</v>
+        <v>32498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0281425847019325</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01581568826570518</v>
+        <v>0.01690489389725158</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0451773604684308</v>
+        <v>0.04683634023894262</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -4285,19 +4285,19 @@
         <v>45776</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32407</v>
+        <v>32542</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63207</v>
+        <v>61768</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03374206157922991</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02388775317642524</v>
+        <v>0.02398717754926303</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04659085750344594</v>
+        <v>0.04552981216904786</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>636539</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>624808</v>
+        <v>623628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>645930</v>
+        <v>646452</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9603960135885045</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9426966502381044</v>
+        <v>0.9409161883175755</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.974565197588722</v>
+        <v>0.9753531520083353</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>620</v>
@@ -4335,19 +4335,19 @@
         <v>674326</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>662507</v>
+        <v>661355</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>682879</v>
+        <v>682123</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9718574152980675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9548226395315692</v>
+        <v>0.9531636597610573</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9841843117342948</v>
+        <v>0.9830951061027484</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1215</v>
@@ -4356,19 +4356,19 @@
         <v>1310865</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1293434</v>
+        <v>1294873</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1324234</v>
+        <v>1324099</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9662579384207701</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.953409142496553</v>
+        <v>0.9544701878309521</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9761122468235747</v>
+        <v>0.9760128224507367</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>28579</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17800</v>
+        <v>18630</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43052</v>
+        <v>42804</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03668170133413588</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02284730060524163</v>
+        <v>0.02391250781591411</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05525872491770194</v>
+        <v>0.05494003359846093</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -4481,19 +4481,19 @@
         <v>28297</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>17251</v>
+        <v>17904</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>41920</v>
+        <v>42451</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03434677974564435</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02093950207585266</v>
+        <v>0.02173160863876717</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05088239973200601</v>
+        <v>0.05152747852883194</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>45</v>
@@ -4502,19 +4502,19 @@
         <v>56875</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40772</v>
+        <v>42298</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75789</v>
+        <v>76488</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03548164479245082</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02543549154599632</v>
+        <v>0.02638757010002086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04728095657048038</v>
+        <v>0.04771702687132335</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>750519</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>736046</v>
+        <v>736294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>761298</v>
+        <v>760468</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9633182986658642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.944741275082298</v>
+        <v>0.9450599664015397</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9771526993947584</v>
+        <v>0.976087492184086</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>735</v>
@@ -4552,19 +4552,19 @@
         <v>795556</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>781933</v>
+        <v>781402</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>806602</v>
+        <v>805949</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9656532202543556</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9491176002679943</v>
+        <v>0.9484725214711672</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9790604979241474</v>
+        <v>0.9782683913612326</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1429</v>
@@ -4573,19 +4573,19 @@
         <v>1546076</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1527162</v>
+        <v>1526463</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1562179</v>
+        <v>1560653</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9645183552075491</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9527190434295196</v>
+        <v>0.9522829731286765</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9745645084540037</v>
+        <v>0.9736124298999791</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>158990</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>132569</v>
+        <v>134025</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>188934</v>
+        <v>188425</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04640956665480246</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0386971320700477</v>
+        <v>0.03912233361431316</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05515029376058733</v>
+        <v>0.05500176796351062</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>104</v>
@@ -4698,19 +4698,19 @@
         <v>122499</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101171</v>
+        <v>99067</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147786</v>
+        <v>148386</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03442605532523693</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02843226174256035</v>
+        <v>0.02784094323622355</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04153256012250402</v>
+        <v>0.04170125120136561</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>239</v>
@@ -4719,19 +4719,19 @@
         <v>281488</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>246945</v>
+        <v>248690</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>319385</v>
+        <v>318172</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04030412762211991</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03535818613655566</v>
+        <v>0.03560799909415539</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04573024051090818</v>
+        <v>0.04555661242790236</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3266808</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3236864</v>
+        <v>3237373</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3293229</v>
+        <v>3291773</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9535904333451976</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.944849706239413</v>
+        <v>0.9449982320364894</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9613028679299525</v>
+        <v>0.9608776663856868</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3194</v>
@@ -4769,19 +4769,19 @@
         <v>3435810</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3410523</v>
+        <v>3409923</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3457138</v>
+        <v>3459242</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9655739446747631</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9584674398774959</v>
+        <v>0.9582987487986343</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9715677382574393</v>
+        <v>0.9721590567637763</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6267</v>
@@ -4790,19 +4790,19 @@
         <v>6702619</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6664722</v>
+        <v>6665935</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6737162</v>
+        <v>6735417</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9596958723778801</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.954269759489092</v>
+        <v>0.9544433875720977</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9646418138634448</v>
+        <v>0.9643920009058445</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>6556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2711</v>
+        <v>2806</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14423</v>
+        <v>13948</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02231747994876455</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009228065635377721</v>
+        <v>0.009552064397948428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04909842561835646</v>
+        <v>0.04748023198754255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -5159,19 +5159,19 @@
         <v>6453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2629</v>
+        <v>2072</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12953</v>
+        <v>12976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02242933457417082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009136097435126235</v>
+        <v>0.007199705700017022</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04502057346240184</v>
+        <v>0.04509836721820775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -5180,19 +5180,19 @@
         <v>13009</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7136</v>
+        <v>7061</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23274</v>
+        <v>23566</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02237282664679298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01227226533114109</v>
+        <v>0.01214294833252466</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04002530522781119</v>
+        <v>0.04052700583178975</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>287205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279338</v>
+        <v>279813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291050</v>
+        <v>290955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9776825200512355</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9509015743816436</v>
+        <v>0.9525197680124577</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9907719343646223</v>
+        <v>0.9904479356020516</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>270</v>
@@ -5230,19 +5230,19 @@
         <v>281271</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>274771</v>
+        <v>274748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>285095</v>
+        <v>285652</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9775706654258292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.954979426537598</v>
+        <v>0.9549016327817922</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9908639025648738</v>
+        <v>0.992800294299983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>530</v>
@@ -5251,19 +5251,19 @@
         <v>568476</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>558211</v>
+        <v>557919</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>574349</v>
+        <v>574424</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.977627173353207</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9599746947721892</v>
+        <v>0.9594729941682105</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9877277346688593</v>
+        <v>0.9878570516674754</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>9371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5111</v>
+        <v>4174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17218</v>
+        <v>17840</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01864601024493424</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01017052551936868</v>
+        <v>0.008305075416787546</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03425889753952219</v>
+        <v>0.03549682716509221</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5376,19 +5376,19 @@
         <v>16078</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9222</v>
+        <v>9770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26566</v>
+        <v>25602</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03073770064809432</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01763100827224569</v>
+        <v>0.01867855389585769</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05078788783067024</v>
+        <v>0.04894413859496818</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -5397,19 +5397,19 @@
         <v>25449</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16517</v>
+        <v>16120</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>37312</v>
+        <v>36856</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02481274553738935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01610401541220912</v>
+        <v>0.01571701835588029</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03637862548341295</v>
+        <v>0.03593435104932775</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>493204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485357</v>
+        <v>484735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>497464</v>
+        <v>498401</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9813539897550657</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9657411024604763</v>
+        <v>0.9645031728349075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9898294744806313</v>
+        <v>0.9916949245832124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>469</v>
@@ -5447,19 +5447,19 @@
         <v>507006</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496518</v>
+        <v>497482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>513862</v>
+        <v>513314</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9692622993519057</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9492121121693301</v>
+        <v>0.9510558614050313</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9823689917277544</v>
+        <v>0.9813214461041423</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>935</v>
@@ -5468,19 +5468,19 @@
         <v>1000210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>988347</v>
+        <v>988803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1009142</v>
+        <v>1009539</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9751872544626107</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.963621374516587</v>
+        <v>0.9640656489506723</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9838959845877908</v>
+        <v>0.9842829816441198</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>23814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15474</v>
+        <v>15843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33824</v>
+        <v>33845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07520205108107093</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04886518643385815</v>
+        <v>0.0500316379312808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1068112288839717</v>
+        <v>0.106880391484149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5593,19 +5593,19 @@
         <v>11879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7191</v>
+        <v>6390</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20168</v>
+        <v>19881</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03532038653032657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02138242415840928</v>
+        <v>0.01899995962723985</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0599673413871727</v>
+        <v>0.05911428006115187</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -5614,19 +5614,19 @@
         <v>35693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25742</v>
+        <v>25926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47896</v>
+        <v>47644</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05466138200066336</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03942271833024431</v>
+        <v>0.03970387462876505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07334996282827484</v>
+        <v>0.07296423043127961</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>292853</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>282843</v>
+        <v>282822</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301193</v>
+        <v>300824</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9247979489189291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8931887711160282</v>
+        <v>0.8931196085158504</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9511348135661417</v>
+        <v>0.949968362068719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>319</v>
@@ -5664,19 +5664,19 @@
         <v>324430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>316141</v>
+        <v>316428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>329118</v>
+        <v>329919</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9646796134696735</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9400326586128265</v>
+        <v>0.9408857199388481</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9786175758415907</v>
+        <v>0.9810000403727601</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>627</v>
@@ -5685,19 +5685,19 @@
         <v>617283</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>605080</v>
+        <v>605332</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>627234</v>
+        <v>627050</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9453386179993366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9266500371717251</v>
+        <v>0.9270357695687202</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9605772816697556</v>
+        <v>0.9602961253712349</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>15731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9156</v>
+        <v>8682</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25873</v>
+        <v>24723</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04251951675274629</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0247476816216169</v>
+        <v>0.02346590312627462</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0699334810951054</v>
+        <v>0.06682429223041193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -5810,19 +5810,19 @@
         <v>9141</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3743</v>
+        <v>4031</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18010</v>
+        <v>18518</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02360166466802691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009663867907873965</v>
+        <v>0.01040885373746899</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04650300303942224</v>
+        <v>0.04781558030104877</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -5831,19 +5831,19 @@
         <v>24871</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15371</v>
+        <v>16274</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37961</v>
+        <v>37424</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03284425553102507</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02029862766752278</v>
+        <v>0.02149120278251385</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0501300523539706</v>
+        <v>0.04942054860603286</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>354233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344091</v>
+        <v>345241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360808</v>
+        <v>361282</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9574804832472538</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9300665189048947</v>
+        <v>0.933175707769588</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9752523183783833</v>
+        <v>0.9765340968737254</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>351</v>
@@ -5881,19 +5881,19 @@
         <v>378142</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>369273</v>
+        <v>368765</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>383540</v>
+        <v>383252</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9763983353319731</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9534969969605777</v>
+        <v>0.9521844196989507</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.990336132092126</v>
+        <v>0.989591146262531</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>690</v>
@@ -5902,19 +5902,19 @@
         <v>732376</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>719286</v>
+        <v>719823</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>741876</v>
+        <v>740973</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9671557444689749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9498699476460293</v>
+        <v>0.9505794513939669</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9797013723324772</v>
+        <v>0.9785087972174861</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>9348</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4202</v>
+        <v>4124</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18376</v>
+        <v>18630</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04425703725253894</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01989249410830264</v>
+        <v>0.0195263490795237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08700067082251983</v>
+        <v>0.08820349822199197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -6027,19 +6027,19 @@
         <v>2642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7060</v>
+        <v>7539</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01208486790802681</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003947514005041747</v>
+        <v>0.003956928442248523</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03229650928826761</v>
+        <v>0.03448769985063837</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6048,19 +6048,19 @@
         <v>11990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5965</v>
+        <v>6213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20602</v>
+        <v>21041</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0278952710476326</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01387785772239557</v>
+        <v>0.01445523976780129</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04793398477665581</v>
+        <v>0.04895503281844341</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>201873</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>192845</v>
+        <v>192591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207019</v>
+        <v>207097</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9557429627474611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9129993291774801</v>
+        <v>0.9117965017780081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9801075058916974</v>
+        <v>0.9804736509204763</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>220</v>
@@ -6098,19 +6098,19 @@
         <v>215945</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211527</v>
+        <v>211048</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>217724</v>
+        <v>217722</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9879151320919732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9677034907117326</v>
+        <v>0.9655123001493633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9960524859949583</v>
+        <v>0.9960430715577515</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>424</v>
@@ -6119,19 +6119,19 @@
         <v>417818</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>409206</v>
+        <v>408767</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423843</v>
+        <v>423595</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9721047289523674</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9520660152233441</v>
+        <v>0.9510449671815565</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9861221422776044</v>
+        <v>0.9855447602321987</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>13101</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6391</v>
+        <v>6842</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22298</v>
+        <v>23096</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04979107893877693</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02429041268192696</v>
+        <v>0.02600338711776862</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08474177098067329</v>
+        <v>0.08777511491828113</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6244,19 +6244,19 @@
         <v>3805</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1025</v>
+        <v>941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10387</v>
+        <v>8793</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01393008469869979</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.003751968704116693</v>
+        <v>0.003444288737443424</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03803119045350495</v>
+        <v>0.03219341897436186</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -6265,19 +6265,19 @@
         <v>16906</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10318</v>
+        <v>9537</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28047</v>
+        <v>26847</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03152647354993725</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01924102606150867</v>
+        <v>0.0177843533786489</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05230319361166442</v>
+        <v>0.05006611335296283</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>250022</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>240825</v>
+        <v>240027</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256732</v>
+        <v>256281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9502089210612231</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9152582290193265</v>
+        <v>0.9122248850817191</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.975709587318073</v>
+        <v>0.9739966128822315</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>259</v>
@@ -6315,19 +6315,19 @@
         <v>269310</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>262728</v>
+        <v>264322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>272090</v>
+        <v>272174</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9860699153013002</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9619688095464949</v>
+        <v>0.967806581025638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9962480312958834</v>
+        <v>0.9965557112625566</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>507</v>
@@ -6336,19 +6336,19 @@
         <v>519332</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>508191</v>
+        <v>509391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>525920</v>
+        <v>526701</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9684735264500628</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9476968063883356</v>
+        <v>0.9499338866470372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9807589739384913</v>
+        <v>0.982215646621351</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>43265</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31604</v>
+        <v>31443</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59746</v>
+        <v>60202</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06620113431954047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04835833870462831</v>
+        <v>0.04811159834665666</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09141835286524487</v>
+        <v>0.09211663919686677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -6461,19 +6461,19 @@
         <v>33172</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23133</v>
+        <v>22870</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44899</v>
+        <v>44932</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04832270379561307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03369812431875242</v>
+        <v>0.03331586035102364</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06540637733830157</v>
+        <v>0.0654537186285718</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>68</v>
@@ -6482,19 +6482,19 @@
         <v>76437</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60711</v>
+        <v>59159</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96103</v>
+        <v>94036</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05704227841824904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04530652111200762</v>
+        <v>0.04414850447625793</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07171792534399721</v>
+        <v>0.07017525546524266</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>610278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>593797</v>
+        <v>593341</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>621939</v>
+        <v>622100</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9337988656804596</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9085816471347553</v>
+        <v>0.9078833608031333</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9516416612953718</v>
+        <v>0.9518884016533435</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>610</v>
@@ -6532,19 +6532,19 @@
         <v>653296</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>641569</v>
+        <v>641536</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>663335</v>
+        <v>663598</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9516772962043869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9345936226616987</v>
+        <v>0.9345462813714281</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9663018756812478</v>
+        <v>0.9666841396489765</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1152</v>
@@ -6553,19 +6553,19 @@
         <v>1263574</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1243908</v>
+        <v>1245975</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1279300</v>
+        <v>1280852</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.942957721581751</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9282820746560028</v>
+        <v>0.9298247445347574</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9546934788879926</v>
+        <v>0.955851495523742</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>35159</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24985</v>
+        <v>24872</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47828</v>
+        <v>47757</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04515783974878882</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03209032436530673</v>
+        <v>0.03194464065239128</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06142964274705405</v>
+        <v>0.06133879708771457</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -6678,19 +6678,19 @@
         <v>38016</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26500</v>
+        <v>26124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51866</v>
+        <v>51845</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04601449891586359</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03207563101575177</v>
+        <v>0.03162060645432285</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06277906214842537</v>
+        <v>0.06275326472652526</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>66</v>
@@ -6699,19 +6699,19 @@
         <v>73175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>56916</v>
+        <v>57172</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92149</v>
+        <v>93239</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04559887014998983</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0354673538582566</v>
+        <v>0.03562662869295209</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05742255277625069</v>
+        <v>0.05810214274982297</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>743424</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>730755</v>
+        <v>730826</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>753598</v>
+        <v>753711</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9548421602512112</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9385703572529458</v>
+        <v>0.9386612029122854</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9679096756346932</v>
+        <v>0.9680553593476088</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>722</v>
@@ -6749,19 +6749,19 @@
         <v>788151</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>774301</v>
+        <v>774322</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>799667</v>
+        <v>800043</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9539855010841364</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9372209378515747</v>
+        <v>0.9372467352734748</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9679243689842482</v>
+        <v>0.9683793935456771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1439</v>
@@ -6770,19 +6770,19 @@
         <v>1531575</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1512601</v>
+        <v>1511511</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1547834</v>
+        <v>1547578</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9544011298500101</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9425774472237493</v>
+        <v>0.9418978572501771</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9645326461417434</v>
+        <v>0.9643733713070479</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>156345</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>131397</v>
+        <v>130345</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>183752</v>
+        <v>183666</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04612722458709606</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03876664866633708</v>
+        <v>0.03845614721183951</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05421316376692292</v>
+        <v>0.05418784373385582</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>113</v>
@@ -6895,19 +6895,19 @@
         <v>121185</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>101536</v>
+        <v>99634</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>145061</v>
+        <v>144579</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03424518408138488</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02869275645081766</v>
+        <v>0.02815515335005699</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04099225739977028</v>
+        <v>0.0408561699245318</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>256</v>
@@ -6916,19 +6916,19 @@
         <v>277530</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>246560</v>
+        <v>245140</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>316445</v>
+        <v>311237</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04005817749975527</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03558805735628768</v>
+        <v>0.03538298703638423</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04567502542980434</v>
+        <v>0.04492337958173689</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3233092</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3205685</v>
+        <v>3205771</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3258040</v>
+        <v>3259092</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9538727754129039</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.945786836233077</v>
+        <v>0.9458121562661442</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9612333513336628</v>
+        <v>0.9615438527881605</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3220</v>
@@ -6966,19 +6966,19 @@
         <v>3417552</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3393676</v>
+        <v>3394158</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3437201</v>
+        <v>3439103</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9657548159186151</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9590077426002296</v>
+        <v>0.9591438300754681</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9713072435491823</v>
+        <v>0.971844846649943</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6304</v>
@@ -6987,19 +6987,19 @@
         <v>6650645</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6611730</v>
+        <v>6616938</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6681615</v>
+        <v>6683035</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9599418225002447</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9543249745701957</v>
+        <v>0.9550766204182631</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9644119426437127</v>
+        <v>0.9646170129636159</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>9383</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4665</v>
+        <v>5107</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16832</v>
+        <v>17223</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02942760102742262</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01463130353507246</v>
+        <v>0.01601698092133996</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05279204221713923</v>
+        <v>0.05401625101342484</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -7356,19 +7356,19 @@
         <v>8788</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5434</v>
+        <v>5559</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13301</v>
+        <v>13616</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02780385710385968</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01719262756903385</v>
+        <v>0.01758731696313518</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04208491718064965</v>
+        <v>0.04308086807779275</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -7377,19 +7377,19 @@
         <v>18171</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11972</v>
+        <v>12170</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25655</v>
+        <v>25879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02861928986028334</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01885557307398585</v>
+        <v>0.01916794433928999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04040753217216136</v>
+        <v>0.04076020720924874</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>309462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>302013</v>
+        <v>301622</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314180</v>
+        <v>313738</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9705723989725773</v>
+        <v>0.9705723989725775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9472079577828607</v>
+        <v>0.9459837489865754</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9853686964649275</v>
+        <v>0.98398301907866</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>520</v>
@@ -7427,19 +7427,19 @@
         <v>307273</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302760</v>
+        <v>302445</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310627</v>
+        <v>310502</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9721961428961403</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9579150828193509</v>
+        <v>0.9569191319222072</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9828073724309674</v>
+        <v>0.9824126830368649</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>840</v>
@@ -7448,19 +7448,19 @@
         <v>616735</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>609251</v>
+        <v>609027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>622934</v>
+        <v>622736</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9713807101397168</v>
+        <v>0.9713807101397166</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9595924678278382</v>
+        <v>0.9592397927907513</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9811444269260141</v>
+        <v>0.98083205566071</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>17431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9258</v>
+        <v>9576</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29964</v>
+        <v>30251</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03284785602053776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01744654316695552</v>
+        <v>0.01804524168342207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05646636680395497</v>
+        <v>0.05700837435013439</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -7573,19 +7573,19 @@
         <v>13924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8840</v>
+        <v>8648</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21646</v>
+        <v>21729</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02547852015611161</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01617548940027429</v>
+        <v>0.01582388352129584</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03960856708775762</v>
+        <v>0.03976119022143923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -7594,19 +7594,19 @@
         <v>31354</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21830</v>
+        <v>20417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>46251</v>
+        <v>44792</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02910897776056163</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02026696143566239</v>
+        <v>0.0189552552069795</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04293883650707526</v>
+        <v>0.04158457977229711</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>513216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>500683</v>
+        <v>500396</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>521389</v>
+        <v>521071</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9671521439794621</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9435336331960453</v>
+        <v>0.9429916256498645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9825534568330445</v>
+        <v>0.9819547583165779</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>697</v>
@@ -7644,19 +7644,19 @@
         <v>532570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>524848</v>
+        <v>524765</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>537654</v>
+        <v>537846</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9745214798438881</v>
+        <v>0.9745214798438884</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9603914329122422</v>
+        <v>0.9602388097785607</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9838245105997258</v>
+        <v>0.9841761164787041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1066</v>
@@ -7665,19 +7665,19 @@
         <v>1045787</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1030890</v>
+        <v>1032349</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1055311</v>
+        <v>1056724</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9708910222394384</v>
+        <v>0.9708910222394385</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9570611634929248</v>
+        <v>0.9584154202277031</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9797330385643379</v>
+        <v>0.9810447447930206</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>9808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4660</v>
+        <v>4391</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18081</v>
+        <v>18307</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03103745043100166</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01474578090526629</v>
+        <v>0.01389641251581289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0572182363680686</v>
+        <v>0.05793622253719924</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -7790,19 +7790,19 @@
         <v>4833</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2239</v>
+        <v>2316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9145</v>
+        <v>9136</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01356251455159249</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006281590580750334</v>
+        <v>0.00649892076575008</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02565934733866295</v>
+        <v>0.02563554775416767</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -7811,19 +7811,19 @@
         <v>14641</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8791</v>
+        <v>8960</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23162</v>
+        <v>24492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02177514410949286</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01307514380211267</v>
+        <v>0.01332656948673668</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03444802307549005</v>
+        <v>0.03642661563640259</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>306185</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>297912</v>
+        <v>297686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311333</v>
+        <v>311602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9689625495689984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9427817636319319</v>
+        <v>0.9420637774628009</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9852542190947339</v>
+        <v>0.9861035874841872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>528</v>
@@ -7861,19 +7861,19 @@
         <v>351548</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>347236</v>
+        <v>347245</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>354142</v>
+        <v>354065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9864374854484075</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9743406526613372</v>
+        <v>0.9743644522458322</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9937184094192496</v>
+        <v>0.99350107923425</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>879</v>
@@ -7882,19 +7882,19 @@
         <v>657734</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>649213</v>
+        <v>647883</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>663584</v>
+        <v>663415</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9782248558905073</v>
+        <v>0.978224855890507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9655519769245101</v>
+        <v>0.9635733843635984</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9869248561978875</v>
+        <v>0.9866734305132634</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>22086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>13422</v>
+        <v>13917</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33535</v>
+        <v>33886</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05918885025904292</v>
+        <v>0.05918885025904291</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03597056658239327</v>
+        <v>0.03729669770769862</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08987015181199375</v>
+        <v>0.09081287654616478</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -8007,19 +8007,19 @@
         <v>15681</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10239</v>
+        <v>10097</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23602</v>
+        <v>23574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03716306871326303</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02426460494685697</v>
+        <v>0.02392873273197502</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05593357367827406</v>
+        <v>0.0558688511029696</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -8028,19 +8028,19 @@
         <v>37767</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27551</v>
+        <v>27673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50841</v>
+        <v>53074</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04749981461600922</v>
+        <v>0.04749981461600921</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03465024944093866</v>
+        <v>0.03480438914370452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06394258896779698</v>
+        <v>0.06675064145548613</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>351059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>339610</v>
+        <v>339259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359723</v>
+        <v>359228</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9408111497409573</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9101298481880067</v>
+        <v>0.9091871234538351</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9640294334176077</v>
+        <v>0.9627033022923015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>575</v>
@@ -8078,19 +8078,19 @@
         <v>406280</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>398359</v>
+        <v>398387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>411722</v>
+        <v>411864</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.962836931286737</v>
+        <v>0.9628369312867372</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9440664263217268</v>
+        <v>0.9441311488970306</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9757353950531431</v>
+        <v>0.9760712672680251</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>845</v>
@@ -8099,19 +8099,19 @@
         <v>757340</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744266</v>
+        <v>742033</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>767556</v>
+        <v>767434</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9525001853839908</v>
+        <v>0.9525001853839906</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9360574110322031</v>
+        <v>0.9332493585445137</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9653497505590612</v>
+        <v>0.9651956108562955</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>6591</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3425</v>
+        <v>3257</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11785</v>
+        <v>11555</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03204887147205814</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01665305842902664</v>
+        <v>0.01583800678422913</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05730412511485006</v>
+        <v>0.05618601804356355</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -8224,19 +8224,19 @@
         <v>4903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2595</v>
+        <v>2409</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8307</v>
+        <v>7873</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02142004804518268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01133504641064168</v>
+        <v>0.01052231677667318</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03628667534472564</v>
+        <v>0.03439012151976591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -8245,19 +8245,19 @@
         <v>11495</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7236</v>
+        <v>7107</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16980</v>
+        <v>17547</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02645010550090622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01665017018086495</v>
+        <v>0.01635380753914495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03907215129237571</v>
+        <v>0.04037609933729932</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>199074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193880</v>
+        <v>194110</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202240</v>
+        <v>202408</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9679511285279417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9426958748851495</v>
+        <v>0.9438139819564365</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.983346941570973</v>
+        <v>0.9841619932157709</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>483</v>
@@ -8295,19 +8295,19 @@
         <v>224015</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>220611</v>
+        <v>221045</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>226323</v>
+        <v>226509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9785799519548174</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9637133246552744</v>
+        <v>0.9656098784802343</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9886649535893585</v>
+        <v>0.9894776832233271</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>752</v>
@@ -8316,19 +8316,19 @@
         <v>423087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417602</v>
+        <v>417035</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427346</v>
+        <v>427475</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9735498944990938</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9609278487076245</v>
+        <v>0.9596239006627009</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.983349829819135</v>
+        <v>0.9836461924608552</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>5710</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2996</v>
+        <v>3039</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10177</v>
+        <v>9816</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02109439466482936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01106827001051021</v>
+        <v>0.01122558328148552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03759305797484657</v>
+        <v>0.03625998401489493</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -8441,19 +8441,19 @@
         <v>6167</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3532</v>
+        <v>3521</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10745</v>
+        <v>10819</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0233829271880114</v>
+        <v>0.02338292718801139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01339279105047603</v>
+        <v>0.01334843763355371</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04074082991998564</v>
+        <v>0.04101838882766864</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -8462,19 +8462,19 @@
         <v>11878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7780</v>
+        <v>7837</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17985</v>
+        <v>17351</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02222376674672874</v>
+        <v>0.02222376674672873</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01455604195357444</v>
+        <v>0.01466329318949624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0336502172183499</v>
+        <v>0.03246548281978932</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>264997</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260530</v>
+        <v>260891</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267711</v>
+        <v>267668</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9789056053351706</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9624069420251534</v>
+        <v>0.9637400159851051</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9889317299894897</v>
+        <v>0.9887744167185143</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>448</v>
@@ -8512,19 +8512,19 @@
         <v>257583</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253005</v>
+        <v>252931</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260218</v>
+        <v>260229</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9766170728119888</v>
+        <v>0.9766170728119884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9592591700800146</v>
+        <v>0.9589816111723314</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9866072089495241</v>
+        <v>0.9866515623664462</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>808</v>
@@ -8533,19 +8533,19 @@
         <v>522579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>516472</v>
+        <v>517106</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526677</v>
+        <v>526620</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9777762332532713</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9663497827816502</v>
+        <v>0.9675345171802108</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9854439580464253</v>
+        <v>0.9853367068105037</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>31985</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20130</v>
+        <v>20121</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51763</v>
+        <v>52389</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04444291256963907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02797095241907207</v>
+        <v>0.02795773677445203</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07192401803283813</v>
+        <v>0.07279376272285679</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -8658,19 +8658,19 @@
         <v>22670</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14904</v>
+        <v>15578</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34177</v>
+        <v>34288</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02940397770365779</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01933148323683479</v>
+        <v>0.0202046401649696</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0443290899849438</v>
+        <v>0.04447213583023413</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -8679,19 +8679,19 @@
         <v>54655</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39052</v>
+        <v>40264</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>75270</v>
+        <v>74691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03666465259061689</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02619715751595567</v>
+        <v>0.02701056337253909</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0504936208978226</v>
+        <v>0.05010550785397672</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>687702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>667924</v>
+        <v>667298</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>699557</v>
+        <v>699566</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9555570874303609</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9280759819671619</v>
+        <v>0.9272062372771431</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9720290475809279</v>
+        <v>0.9720422632255482</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>932</v>
@@ -8729,19 +8729,19 @@
         <v>748321</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>736814</v>
+        <v>736703</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>756087</v>
+        <v>755413</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9705960222963421</v>
+        <v>0.9705960222963422</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9556709100150561</v>
+        <v>0.9555278641697659</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9806685167631652</v>
+        <v>0.9797953598350304</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1509</v>
@@ -8750,19 +8750,19 @@
         <v>1436023</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1415408</v>
+        <v>1415987</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1451626</v>
+        <v>1450414</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9633353474093832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9495063791021775</v>
+        <v>0.9498944921460233</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9738028424840443</v>
+        <v>0.972989436627461</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>26657</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>17675</v>
+        <v>17993</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>38142</v>
+        <v>39044</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.0334023171406515</v>
+        <v>0.03340231714065149</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02214759747045819</v>
+        <v>0.02254501505203367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04779269106494047</v>
+        <v>0.04892310063108981</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -8875,19 +8875,19 @@
         <v>26353</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18879</v>
+        <v>18666</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36909</v>
+        <v>36935</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.0317271273133045</v>
+        <v>0.03172712731330451</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02272941600248204</v>
+        <v>0.02247206586872948</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04443624066170945</v>
+        <v>0.0444672291481409</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -8896,19 +8896,19 @@
         <v>53010</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40134</v>
+        <v>40913</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68408</v>
+        <v>68220</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03254798924681278</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02464186601510136</v>
+        <v>0.02512020778157458</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04200213536046828</v>
+        <v>0.04188679148780004</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>771415</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>759930</v>
+        <v>759028</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>780397</v>
+        <v>780079</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9665976828593484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9522073089350596</v>
+        <v>0.9510768993689102</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9778524025295419</v>
+        <v>0.9774549849479661</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1026</v>
@@ -8946,19 +8946,19 @@
         <v>804256</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>793700</v>
+        <v>793674</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>811730</v>
+        <v>811943</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9682728726866954</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.955563759338291</v>
+        <v>0.9555327708518592</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9772705839975181</v>
+        <v>0.9775279341312713</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1761</v>
@@ -8967,19 +8967,19 @@
         <v>1575671</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1560273</v>
+        <v>1560461</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1588547</v>
+        <v>1587768</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9674520107531872</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9579978646395317</v>
+        <v>0.9581132085121999</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9753581339848987</v>
+        <v>0.9748797922184255</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>129651</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>106260</v>
+        <v>108322</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>157020</v>
+        <v>155715</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03669970105723599</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03007855892288008</v>
+        <v>0.03066220956461914</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04444674153067638</v>
+        <v>0.04407743301204065</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>156</v>
@@ -9092,19 +9092,19 @@
         <v>103320</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>87563</v>
+        <v>87907</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>119906</v>
+        <v>121424</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0276614500664914</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02344282596896593</v>
+        <v>0.02353495521616312</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.03210193880420942</v>
+        <v>0.03250844485124111</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>281</v>
@@ -9113,19 +9113,19 @@
         <v>232971</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>204453</v>
+        <v>204929</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>267912</v>
+        <v>266257</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03205472307522696</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02813091460237443</v>
+        <v>0.02819632230451949</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03686218470160741</v>
+        <v>0.0366344858063352</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3403111</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3375742</v>
+        <v>3377047</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3426502</v>
+        <v>3424440</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.963300298942764</v>
+        <v>0.9633002989427641</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9555532584693236</v>
+        <v>0.9559225669879595</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.96992144107712</v>
+        <v>0.9693377904353807</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5209</v>
@@ -9163,19 +9163,19 @@
         <v>3631846</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3615260</v>
+        <v>3613742</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3647603</v>
+        <v>3647259</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9723385499335085</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9678980611957907</v>
+        <v>0.967491555148759</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9765571740310343</v>
+        <v>0.976465044783837</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8460</v>
@@ -9184,19 +9184,19 @@
         <v>7034957</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7000016</v>
+        <v>7001671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7063475</v>
+        <v>7062999</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9679452769247731</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9631378152983926</v>
+        <v>0.9633655141936649</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9718690853976257</v>
+        <v>0.9718036776954805</v>
       </c>
     </row>
     <row r="30">
